--- a/conflit_faune.xlsx
+++ b/conflit_faune.xlsx
@@ -296,7 +296,7 @@
     <t>STATISTIQUE DONNEES CONFLITS</t>
   </si>
   <si>
-    <t>Blèssés</t>
+    <t>Blesses</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,11 +800,11 @@
         <v>11</v>
       </c>
       <c r="J3" s="1">
-        <f>COUNTIF(B$3:B$117,I3)</f>
+        <f t="shared" ref="J3:J12" si="0">COUNTIF(B$3:B$117,I3)</f>
         <v>25</v>
       </c>
       <c r="K3" s="1">
-        <f>SUMIF(B$3:B$117,I3,E$3:E$117)</f>
+        <f t="shared" ref="K3:K12" si="1">SUMIF(B$3:B$117,I3,E$3:E$117)</f>
         <v>8</v>
       </c>
       <c r="L3" s="1">
@@ -842,11 +842,11 @@
         <v>62</v>
       </c>
       <c r="J4" s="1">
-        <f>COUNTIF(B$3:B$117,I4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <f>SUMIF(B$3:B$117,I4,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -884,11 +884,11 @@
         <v>52</v>
       </c>
       <c r="J5" s="1">
-        <f>COUNTIF(B$3:B$117,I5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K5" s="1">
-        <f>SUMIF(B$3:B$117,I5,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L5" s="1">
@@ -926,11 +926,11 @@
         <v>14</v>
       </c>
       <c r="J6" s="1">
-        <f>COUNTIF(B$3:B$117,I6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K6" s="1">
-        <f>SUMIF(B$3:B$117,I6,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -968,11 +968,11 @@
         <v>3</v>
       </c>
       <c r="J7" s="1">
-        <f>COUNTIF(B$3:B$117,I7)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="K7" s="1">
-        <f>SUMIF(B$3:B$117,I7,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="L7" s="1">
@@ -1010,11 +1010,11 @@
         <v>70</v>
       </c>
       <c r="J8" s="1">
-        <f>COUNTIF(B$3:B$117,I8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <f>SUMIF(B$3:B$117,I8,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="1">
@@ -1052,11 +1052,11 @@
         <v>35</v>
       </c>
       <c r="J9" s="1">
-        <f>COUNTIF(B$3:B$117,I9)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K9" s="1">
-        <f>SUMIF(B$3:B$117,I9,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L9" s="1">
@@ -1094,11 +1094,11 @@
         <v>56</v>
       </c>
       <c r="J10" s="1">
-        <f>COUNTIF(B$3:B$117,I10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K10" s="1">
-        <f>SUMIF(B$3:B$117,I10,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L10" s="1">
@@ -1136,11 +1136,11 @@
         <v>61</v>
       </c>
       <c r="J11" s="1">
-        <f>COUNTIF(B$3:B$117,I11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <f>SUMIF(B$3:B$117,I11,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="1">
@@ -1178,11 +1178,11 @@
         <v>51</v>
       </c>
       <c r="J12" s="1">
-        <f>COUNTIF(B$3:B$117,I12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <f>SUMIF(B$3:B$117,I12,E$3:E$117)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L12" s="1">
